--- a/randomcard.xlsx
+++ b/randomcard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mod\sts\chaofanmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAE17E3-0291-4776-94A5-ADBFAE87E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002AEF4-CC1A-4CF7-BC13-D7441E00AAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6463A53D-ADAD-431A-9CBB-7CE2883F22CB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -552,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691A7B4F-2F42-4C54-8266-6AAB8DB7EB2E}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1570,10 +1571,10 @@
       <c r="E27" s="1">
         <v>23</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="1">
@@ -1584,10 +1585,10 @@
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>-2</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I28" s="1">
         <v>-18</v>
       </c>
       <c r="J28" s="1">
@@ -1598,34 +1599,42 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="H29">
+      <c r="H29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
         <v>-1</v>
       </c>
-      <c r="I29">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
+      <c r="I30" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
         <v>30</v>
       </c>
     </row>
